--- a/Code/data/reports/CrossTab_Report.xlsx
+++ b/Code/data/reports/CrossTab_Report.xlsx
@@ -173,10 +173,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -700,52 +708,209 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>NIGEL</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>NIRL</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
           <t>NLCIL</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>NTPL</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>NUPPL</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>Non-Plan</t>
+          <t>Capex</t>
         </is>
       </c>
       <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="14" t="n"/>
-      <c r="G2" s="15" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
+          <t>Feasibility</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Non-Plan</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Opex</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>305</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="15" t="n"/>
+      <c r="C8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>403</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr">

--- a/Code/data/reports/CrossTab_Report.xlsx
+++ b/Code/data/reports/CrossTab_Report.xlsx
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>2</v>
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>5</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E8" s="13" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10">
